--- a/src/test/resources/testData/boards/updateBoard.xlsx
+++ b/src/test/resources/testData/boards/updateBoard.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sulekhasharma\TrainingRestAssuredNew\src\test\resources\testData\boards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79AD595-069E-47DD-804A-4634B930C786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88874A26-B276-444A-BC17-B854932D900B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="headers" sheetId="1" r:id="rId1"/>
-    <sheet name="pathParams" sheetId="2" r:id="rId2"/>
-    <sheet name="queryParams" sheetId="3" r:id="rId3"/>
+    <sheet name="queryParams" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Content-Type</t>
   </si>
@@ -42,12 +41,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>boardId</t>
-  </si>
-  <si>
-    <t>66c6edb2201b0da803929bd4</t>
   </si>
   <si>
     <t>Trello Board-RestAssured-Automation-Excel-Prop-PUT</t>
@@ -373,7 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -405,36 +398,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B063276-8DDC-496B-9E75-D20045CE2CEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C70B49-C2CB-4FD0-9BFA-F15A5DD9B9DA}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C70B49-C2CB-4FD0-9BFA-F15A5DD9B9DA}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -449,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
